--- a/Output/tus.xlsx
+++ b/Output/tus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
   <si>
     <t>country</t>
   </si>
@@ -47,31 +47,232 @@
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Afghanistan</t>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Iran</t>
   </si>
   <si>
     <t>Kyrgyz Republic</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>Tanzania</t>
   </si>
   <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>AFG</t>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>IRN</t>
   </si>
   <si>
     <t>KGZ</t>
   </si>
   <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Ethiopian Time Use Survey 2012, Ethiopian Time Use Survey 2013</t>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
   <si>
     <t>TUS 2020 (https://www2.unwomen.org/-/media/field%20office%20eseasia/docs/publications/2020/05/timeusesurveymay2020.pdf?la=en&amp;vs=3719)</t>
@@ -87,6 +288,9 @@
   </si>
   <si>
     <t>https://unstats.un.org/unsd/gender/timeuse and manual ODW check of NSO websites</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/unsd/demographic-social/time-use/</t>
   </si>
   <si>
     <t>Completed</t>
@@ -169,25 +373,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2013.0</v>
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -195,25 +399,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -221,25 +425,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -247,25 +451,597 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
